--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322259.061560525</v>
+        <v>319653.9938601676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2989156.853416513</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20349704.61069184</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821032.195206849</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6263639150735023</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>25.62029119463083</v>
@@ -1424,7 +1424,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>12.57565326968602</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.62029119463083</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="H12" t="n">
-        <v>21.81976115797297</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
         <v>25.62029119463083</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U13" t="n">
-        <v>25.62029119463083</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="V13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
         <v>27.59002526031614</v>
@@ -1898,7 +1898,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1792675346265556</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="W19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="X19" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>145.4467082856156</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,64 +2239,64 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>28.97306452695906</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,68 +2552,68 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>113.5441002189708</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>35.69115069765793</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>75.58265010978022</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>159.8338995487974</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>215.3939976830282</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>29.85921600351676</v>
+        <v>39.84991521806149</v>
       </c>
       <c r="D32" t="n">
         <v>215.3939976830282</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>53.38835805049671</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>209.0513475444858</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>215.3939976830282</v>
+        <v>36.2331441002996</v>
       </c>
       <c r="E35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>22.8280347615265</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>74.75945139852273</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,43 +3433,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="U38" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="39">
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.03586205537345</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,43 +3670,43 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>213.4242636173429</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>187.9840913941556</v>
       </c>
-      <c r="C41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="D41" t="n">
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>40.23807078750034</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>195.6353698080211</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306219</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.97407071350496</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="D8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="E8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="F8" t="n">
-        <v>14.75230336596039</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>14.75230336596039</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>14.75230336596039</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
         <v>14.11961254265382</v>
@@ -4805,19 +4805,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>26.38889993046976</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4826,28 +4826,28 @@
         <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S8" t="n">
-        <v>40.631385380739</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M9" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="O9" t="n">
         <v>51.75298821315428</v>
-      </c>
-      <c r="N9" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="O9" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
         <v>77.1170764958388</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5042,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L11" t="n">
-        <v>51.75298821315428</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N11" t="n">
         <v>51.75298821315428</v>
@@ -5060,16 +5060,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>66.51046739551762</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S11" t="n">
-        <v>40.631385380739</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T11" t="n">
-        <v>14.75230336596039</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U11" t="n">
         <v>2.049623295570466</v>
@@ -5106,10 +5106,10 @@
         <v>102.4811647785233</v>
       </c>
       <c r="F12" t="n">
-        <v>76.6020827637447</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G12" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
         <v>28.6828379631348</v>
@@ -5121,16 +5121,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M12" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
         <v>77.1170764958388</v>
@@ -5209,31 +5209,31 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R13" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="T13" t="n">
-        <v>76.6020827637447</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="U13" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
         <v>2.049623295570466</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.80778732512771</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="C14" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="E14" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="F14" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J14" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L14" t="n">
         <v>27.41371157825499</v>
-      </c>
-      <c r="L14" t="n">
-        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
         <v>52.77779986093951</v>
       </c>
       <c r="N14" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5312,16 +5312,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W14" t="n">
-        <v>79.68686933990632</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X14" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="Y14" t="n">
-        <v>53.80778732512771</v>
+        <v>65.87777657221105</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>2.80375594835618</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G15" t="n">
-        <v>2.80375594835618</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H15" t="n">
-        <v>2.80375594835618</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I15" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
         <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>51.75298821315428</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O15" t="n">
         <v>51.75298821315428</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5516,19 +5516,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,13 +5537,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T17" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U17" t="n">
         <v>2.207202020825291</v>
@@ -5595,7 +5595,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
         <v>55.73185102583861</v>
@@ -5610,7 +5610,7 @@
         <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="J19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K19" t="n">
         <v>2.207202020825291</v>
@@ -5704,19 +5704,19 @@
         <v>108.4888536788635</v>
       </c>
       <c r="U19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="V19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="W19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="X19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="Y19" t="n">
         <v>80.62014129470579</v>
-      </c>
-      <c r="V19" t="n">
-        <v>52.75142891054807</v>
-      </c>
-      <c r="W19" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U23" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.5792353467183</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>833.6219043191188</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>833.6219043191188</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X24" t="n">
-        <v>339.3395341116723</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y24" t="n">
-        <v>131.5792353467183</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>256.869462878957</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C27" t="n">
-        <v>256.869462878957</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D27" t="n">
-        <v>256.869462878957</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E27" t="n">
-        <v>256.869462878957</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
         <v>110.334904905842</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>928.0054881392646</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>699.7818698756537</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>464.6297616439109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>464.6297616439109</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>464.6297616439109</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>256.869462878957</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6406,13 +6406,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>234.8012144439637</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>234.8012144439637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>234.8012144439637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>234.8012144439637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
-        <v>23.55055379931807</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>203.6264053839766</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M29" t="n">
-        <v>416.8664630901746</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>669.9406037026066</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>669.9406037026066</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>669.9406037026066</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>669.9406037026066</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>669.9406037026066</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>669.9406037026066</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>452.3709090732851</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>268.0306603177695</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>93.57763103664249</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>93.57763103664249</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>93.57763103664249</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>93.57763103664249</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>17.23151981464226</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>183.0578391930369</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>396.2978968992348</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>609.5379546054328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>861.5759907321129</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>861.5759907321129</v>
+        <v>629.1914275786814</v>
       </c>
       <c r="U30" t="n">
-        <v>861.5759907321129</v>
+        <v>400.9678093150704</v>
       </c>
       <c r="V30" t="n">
-        <v>644.0062961027915</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="W30" t="n">
-        <v>644.0062961027915</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X30" t="n">
-        <v>644.0062961027915</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>436.2459973378375</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>44.54564482235524</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>83.73368301457742</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4245336700137</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.763810304913</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.763810304913</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>151.763810304913</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>700.1014279485831</v>
+        <v>275.0536540581672</v>
       </c>
       <c r="C32" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
         <v>17.23151981464226</v>
@@ -6701,49 +6701,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>506.5265183822256</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>712.3810405894649</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="T32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="U32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="V32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="W32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="X32" t="n">
-        <v>700.1014279485831</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="Y32" t="n">
-        <v>700.1014279485831</v>
+        <v>492.6233486874887</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.23151981464226</v>
+        <v>485.6003549470909</v>
       </c>
       <c r="C33" t="n">
-        <v>17.23151981464226</v>
+        <v>311.1473256659639</v>
       </c>
       <c r="D33" t="n">
-        <v>17.23151981464226</v>
+        <v>162.2129160047126</v>
       </c>
       <c r="E33" t="n">
-        <v>17.23151981464226</v>
+        <v>162.2129160047126</v>
       </c>
       <c r="F33" t="n">
-        <v>17.23151981464226</v>
+        <v>162.2129160047126</v>
       </c>
       <c r="G33" t="n">
-        <v>17.23151981464226</v>
+        <v>162.2129160047126</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
@@ -6783,19 +6783,19 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
+        <v>142.5890798724797</v>
+      </c>
+      <c r="M33" t="n">
         <v>355.8291375786776</v>
       </c>
-      <c r="M33" t="n">
-        <v>465.6924554125641</v>
-      </c>
       <c r="N33" t="n">
-        <v>465.6924554125641</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="O33" t="n">
-        <v>678.932513118762</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="P33" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
@@ -6813,16 +6813,16 @@
         <v>861.5759907321129</v>
       </c>
       <c r="V33" t="n">
-        <v>650.4130134144505</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W33" t="n">
-        <v>432.843318785129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X33" t="n">
-        <v>224.9918185795962</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.23151981464226</v>
+        <v>653.815691967159</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="S34" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="T34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="C35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="D35" t="n">
-        <v>482.5317333192617</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>264.9620386899402</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>29.30150906172561</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L35" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
@@ -6962,25 +6962,25 @@
         <v>700.1014279485831</v>
       </c>
       <c r="S35" t="n">
-        <v>700.1014279485831</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="T35" t="n">
-        <v>700.1014279485831</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="U35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="V35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="W35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="X35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
       <c r="Y35" t="n">
-        <v>700.1014279485831</v>
+        <v>53.83065526949034</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.23151981464226</v>
+        <v>426.43660147347</v>
       </c>
       <c r="C36" t="n">
-        <v>17.23151981464226</v>
+        <v>251.983572192343</v>
       </c>
       <c r="D36" t="n">
-        <v>17.23151981464226</v>
+        <v>176.4689748200978</v>
       </c>
       <c r="E36" t="n">
         <v>17.23151981464226</v>
@@ -7023,16 +7023,16 @@
         <v>142.5890798724797</v>
       </c>
       <c r="M36" t="n">
-        <v>355.8291375786776</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N36" t="n">
-        <v>465.6924554125641</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>678.932513118762</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
@@ -7053,13 +7053,13 @@
         <v>426.43660147347</v>
       </c>
       <c r="W36" t="n">
-        <v>208.8669068441485</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X36" t="n">
-        <v>17.23151981464226</v>
+        <v>426.43660147347</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.23151981464226</v>
+        <v>426.43660147347</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
         <v>17.23151981464226</v>
@@ -7117,28 +7117,28 @@
         <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>452.3709090732851</v>
+        <v>426.43660147347</v>
       </c>
       <c r="C38" t="n">
-        <v>452.3709090732851</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7175,49 +7175,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>633.9146807345644</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="U38" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V38" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W38" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X38" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y38" t="n">
-        <v>452.3709090732851</v>
+        <v>426.43660147347</v>
       </c>
     </row>
     <row r="39">
@@ -7257,40 +7257,40 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M39" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N39" t="n">
-        <v>569.0691952848756</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>678.932513118762</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>843.3579482519377</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U39" t="n">
-        <v>644.0062961027915</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V39" t="n">
-        <v>426.43660147347</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W39" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X39" t="n">
         <v>17.23151981464226</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>448.2340696092722</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="F41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="G41" t="n">
-        <v>17.07394108938743</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="H41" t="n">
         <v>17.07394108938743</v>
@@ -7412,16 +7412,16 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>107.2817095536563</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>287.3575611383148</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>498.6475821194843</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>704.5021043267236</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
         <v>853.6970544693717</v>
@@ -7448,13 +7448,13 @@
         <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>853.6970544693717</v>
+        <v>422.536925949487</v>
       </c>
       <c r="Y41" t="n">
-        <v>853.6970544693717</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="C42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7497,13 +7497,13 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7635558748512</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>671.0535768560208</v>
+        <v>776.3015640907333</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P42" t="n">
         <v>853.6970544693717</v>
@@ -7524,16 +7524,16 @@
         <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
+        <v>853.6970544693717</v>
+      </c>
+      <c r="W42" t="n">
         <v>638.1169902094293</v>
       </c>
-      <c r="W42" t="n">
-        <v>422.536925949487</v>
-      </c>
       <c r="X42" t="n">
-        <v>214.6854257439542</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>430.3566914444754</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="C43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="D43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="E43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="F43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="G43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="H43" t="n">
-        <v>151.6062315796582</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="I43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="J43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="K43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="L43" t="n">
-        <v>44.38806609710041</v>
+        <v>746.4788889868139</v>
       </c>
       <c r="M43" t="n">
-        <v>83.57610428932259</v>
+        <v>785.6669271790361</v>
       </c>
       <c r="N43" t="n">
-        <v>127.2669549447589</v>
+        <v>829.3577778344724</v>
       </c>
       <c r="O43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
     </row>
     <row r="44">
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>255.0333547912217</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>162.4265668883987</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
         <v>165.6020652806523</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>260.3515428840269</v>
@@ -8699,7 +8699,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
         <v>255.7185026163176</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
         <v>159.5946986089611</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
         <v>257.9362584875889</v>
@@ -9176,10 +9176,10 @@
         <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -9258,10 +9258,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10194,22 +10194,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>309.6353666274674</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>346.7357097663615</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>357.9902421274727</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>438.6332444111135</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>253.1070822390753</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>143.9463056241383</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10671,10 +10671,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N36" t="n">
-        <v>242.3147604003904</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>253.5692927615014</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>311.2088090896966</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>367.8635777812772</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11145,16 +11145,16 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2471993224798</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>220.77350745317</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>371.3133069426435</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>406.2496818266379</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>209.8495256553324</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>124.2488267465189</v>
@@ -23312,7 +23312,7 @@
         <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>238.7699996381505</v>
+        <v>228.7793004236057</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,13 +23346,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>119.4489211987531</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G12" t="n">
         <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>90.41568307852349</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
         <v>63.77634165678425</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23470,13 +23470,13 @@
         <v>202.3252982336507</v>
       </c>
       <c r="U13" t="n">
-        <v>260.69873816186</v>
+        <v>266.4741176073666</v>
       </c>
       <c r="V13" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>263.9566458523602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>339.6526005763767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,10 +23513,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W14" t="n">
-        <v>326.6746162331822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>359.1140375488507</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1216209230018</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>125.5678236918632</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
         <v>181.4300443259292</v>
@@ -23786,7 +23786,7 @@
         <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>223.7556276475204</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23911,10 +23911,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>93.17991258204621</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>203.2608960285278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,10 +23987,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>128.0146919313124</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>27.26179070270013</v>
+        <v>10.17644760047799</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24102,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>98.1469632631722</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>257.4082506688596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>26.16840584907007</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>142.7101065768788</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>23.79941694423984</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24573,16 +24573,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>164.4735779971637</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.3398439804523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24728,7 +24728,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>19.30103642703409</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.8439409730254</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>61.76086705343042</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>40.3308291460242</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>17.40658946639704</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24886,10 +24886,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>335.4136757674908</v>
+        <v>325.4229765529461</v>
       </c>
       <c r="D32" t="n">
         <v>139.2890439376547</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>58.84708618599975</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>23.74923960493945</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25157,13 +25157,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>139.2890439376547</v>
+        <v>318.4498975203834</v>
       </c>
       <c r="E35" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>384.0480109801849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>72.68561416611603</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25293,10 +25293,10 @@
         <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>16.05395204426628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,10 +25391,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25406,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>124.0808044327389</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>20.75685641119472</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>7.701851881103124</v>
       </c>
       <c r="U38" t="n">
-        <v>71.61731896317002</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>82.12197209726969</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25533,7 +25533,7 @@
         <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
-        <v>16.05395204426628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.749750269325</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>141.25877800334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,10 +25640,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>151.4907107216115</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>97.1054463757103</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.04732596928329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350049.7958156169</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350049.7958156169</v>
+        <v>350049.7958156171</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350049.7958156168</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488398.3911706115</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488398.3911706115</v>
+        <v>488398.3911706117</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486975.2514232369</v>
+        <v>486975.2514232371</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26314,16 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>63121.07616893066</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
+        <v>63121.07616893065</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63121.07616893068</v>
+      </c>
+      <c r="F2" t="n">
         <v>63121.07616893067</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63121.07616893067</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63121.07616893068</v>
       </c>
       <c r="G2" t="n">
         <v>63415.76181874351</v>
@@ -26332,25 +26332,25 @@
         <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="J2" t="n">
-        <v>91388.36989223279</v>
-      </c>
       <c r="K2" t="n">
-        <v>88052.58645764725</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
         <v>88052.58645764727</v>
       </c>
       <c r="M2" t="n">
-        <v>88052.58645764725</v>
+        <v>88052.58645764728</v>
       </c>
       <c r="N2" t="n">
-        <v>88052.58645764725</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
-        <v>87796.12542771841</v>
+        <v>87796.12542771843</v>
       </c>
       <c r="P2" t="n">
         <v>59129.07304229552</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8277.165051769143</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>11244.18577987448</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>11299.21161664248</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>15899.57777605044</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>15851.6895168862</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>13095.95505912812</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15002.70297086521</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>8414.411632653479</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>16691.57668442264</v>
+        <v>8463.818372101334</v>
       </c>
       <c r="E6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588954</v>
       </c>
       <c r="F6" t="n">
-        <v>50319.17668442265</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="G6" t="n">
-        <v>49899.20210488045</v>
+        <v>49628.59358656541</v>
       </c>
       <c r="H6" t="n">
-        <v>2628.454590704179</v>
+        <v>2236.224345158626</v>
       </c>
       <c r="I6" t="n">
-        <v>60212.24173303584</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="J6" t="n">
-        <v>60212.24173303583</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="K6" t="n">
-        <v>59057.05362246869</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="L6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.32698494983</v>
       </c>
       <c r="M6" t="n">
-        <v>59057.05362246869</v>
+        <v>58679.32698494985</v>
       </c>
       <c r="N6" t="n">
-        <v>59057.05362246869</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="O6" t="n">
-        <v>58968.24068289775</v>
+        <v>58591.62910884903</v>
       </c>
       <c r="P6" t="n">
-        <v>48630.30297086521</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>215.3939976830282</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N8" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N8" t="n">
-        <v>25.62029119463083</v>
-      </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>25.62029119463083</v>
@@ -35340,7 +35340,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>24.58512791403969</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
         <v>25.62029119463083</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M12" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>25.62029119463083</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M17" t="n">
         <v>27.59002526031614</v>
@@ -35896,10 +35896,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="L18" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3808631277494</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>167.5013327054491</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>215.3939976830282</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>208.2870111838408</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="M33" t="n">
-        <v>110.973048317057</v>
-      </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37318,10 +37318,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>40.87753466722953</v>
+      </c>
+      <c r="N36" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N36" t="n">
-        <v>110.973048317057</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37555,10 +37555,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>40.87753466722953</v>
+      </c>
+      <c r="N39" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>110.973048317057</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>91.118958044716</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>137.7653663595904</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>107.1131654004615</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>78.17726300872559</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
